--- a/docs/paper_experiment/FN/FN_re.xlsx
+++ b/docs/paper_experiment/FN/FN_re.xlsx
@@ -1,29 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10513"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mituba/.ghq/src/github.com/mitubaEX/research/docs/paper_experiment/FN/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tamadalab/.ghq/src/github.com/mitubaEX/research/docs/paper_experiment/FN/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14883268-8575-814D-8D01-E87A697E95AE}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F7EE197-4666-B846-9661-D210CA7FA12D}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23460" yWindow="-19100" windowWidth="27900" windowHeight="16500" activeTab="2" xr2:uid="{E3283A29-F980-5A4F-B8BD-D15A277E7FE8}"/>
+    <workbookView xWindow="50980" yWindow="-18880" windowWidth="27900" windowHeight="16500" xr2:uid="{E3283A29-F980-5A4F-B8BD-D15A277E7FE8}"/>
   </bookViews>
   <sheets>
     <sheet name="BM25" sheetId="1" r:id="rId1"/>
     <sheet name="edit" sheetId="2" r:id="rId2"/>
     <sheet name="グラフ" sheetId="3" r:id="rId3"/>
+    <sheet name="本ちゃん" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlchart.v2.0" hidden="1">グラフ!$A$2</definedName>
-    <definedName name="_xlchart.v2.1" hidden="1">グラフ!$A$3</definedName>
-    <definedName name="_xlchart.v2.2" hidden="1">グラフ!$B$1:$K$1</definedName>
-    <definedName name="_xlchart.v2.3" hidden="1">グラフ!$B$2:$K$2</definedName>
-    <definedName name="_xlchart.v2.4" hidden="1">グラフ!$B$3:$K$3</definedName>
-  </definedNames>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1546,8 +1540,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3515C793-43EF-5147-A640-94FD7BF88370}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12:J12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2045,8 +2039,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6DAC2E1-EFA5-794D-982D-74C30784D07B}">
   <dimension ref="A1:K12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2164,4 +2158,17 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DAE947AD-893D-9949-9320-16F27C7895F1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>